--- a/metrics/Evaluation_Metrics.xlsx
+++ b/metrics/Evaluation_Metrics.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/367d389d4ff35ead/Dokumente/Master/2Semester/NLP/clin_IQ/nlp_project_template/metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/367d389d4ff35ead/Dokumente/Master/2Semester/NLP/clin_IQ/clin_IQ/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A467FD-5713-49C6-8FE0-A6813A5C869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{92A467FD-5713-49C6-8FE0-A6813A5C869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E143E605-13DD-42A9-BC20-38BE9F46D5BA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CB935C0-910F-4012-999E-2B1215D40423}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metrics for Evaluation" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="2" r:id="rId2"/>
+    <sheet name="Metrics for Evaluation_Final" sheetId="3" r:id="rId1"/>
+    <sheet name="Metrics for Evaluation" sheetId="1" r:id="rId2"/>
+    <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>Metric Name</t>
   </si>
@@ -135,26 +158,77 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Model Version 1</t>
-  </si>
-  <si>
-    <t>Model Version 2</t>
-  </si>
-  <si>
-    <t>Model Version 3</t>
-  </si>
-  <si>
     <t>OpenAI. (2025). ChatGPT (April 16 version) [Large language model]. https://chat.openai.com</t>
   </si>
   <si>
     <t>Reason: To gather important evaluation metrics</t>
+  </si>
+  <si>
+    <t>Model Version 1: RAG</t>
+  </si>
+  <si>
+    <t>Model Version 2: Fine-Tuning</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Short Answer</t>
+  </si>
+  <si>
+    <t>True False</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Multi Hop</t>
+  </si>
+  <si>
+    <t>Model Version 3: X</t>
+  </si>
+  <si>
+    <t>Model Version 3: RAG with Metadata (Custom Classifier)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Exact Match</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>ROUGE-L</t>
+  </si>
+  <si>
+    <t>BERTScore</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Fluency</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>All questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +258,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +280,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,11 +316,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +403,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,6 +456,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537308</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B3562B-B373-45D6-9510-793681D553BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16363462" y="162821"/>
+          <a:ext cx="4265897" cy="1921281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Easier to Assess Automatically</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Exact Match (EM) F1 Score BLEU Score ROUGE (e.g., ROUGE-L) BERTScore (Precision / Recall / F1) Cosine Similarity  and Recall</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Human</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Judgement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Relevance, Completeness, Fluency and Hallucinations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>see 4_Evaluation.ipynb</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,197 +909,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8523C6-230C-4A9A-BC4D-A7DDB154F7E0}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="19" t="str" cm="1">
+        <f t="array" ref="B20:B30">_xlfn.UNIQUE(B2:B18)</f>
+        <v>F1-Score</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="19" t="str">
+        <v>ROUGE-L</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="19" t="str">
+        <v>BERTScore</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="19" t="str">
+        <v>Relevance</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="19" t="str">
+        <v>Fluency</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="19" t="str">
+        <v>Exact Match</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="19" t="str">
+        <v>Accuracy</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="19" t="str">
+        <v>Cosine Similarity</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="19" t="str">
+        <v>Hallucination Rate</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="19" t="str">
+        <v>Completeness</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="19" t="str">
+        <v>Consistency</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D40021E-C1EE-49CA-A4E2-E1766B66B557}">
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="35" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
     <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F97D8-F2ED-45A7-B1ED-78FA255227CF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -772,12 +1963,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
